--- a/Bộ data demo/File dữ liệu input/data hạnh kiểm.xlsx
+++ b/Bộ data demo/File dữ liệu input/data hạnh kiểm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019_2020\HK2\TKPM\PROJECT\WEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019_2020\HK2\TKPM\PROJECT\WEB\QLHS\Bộ data demo\File dữ liệu input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F940E901-0030-4C2A-8F77-D2F64444809A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C35692-81E5-4F46-8269-1BB6AB130662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
-  <si>
-    <t>stt</t>
-  </si>
-  <si>
-    <t>mã học sinh</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Họ tên</t>
   </si>
@@ -39,9 +33,6 @@
     <t>HS20180101</t>
   </si>
   <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
     <t>HS20180102</t>
   </si>
   <si>
@@ -54,18 +45,12 @@
     <t>HS20180105</t>
   </si>
   <si>
-    <t>xếp loại</t>
-  </si>
-  <si>
     <t>tốt</t>
   </si>
   <si>
     <t>khá</t>
   </si>
   <si>
-    <t>giới tính</t>
-  </si>
-  <si>
     <t>nam</t>
   </si>
   <si>
@@ -73,6 +58,33 @@
   </si>
   <si>
     <t>tb</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn An</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bách</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Dũng</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hưng</t>
+  </si>
+  <si>
+    <t>Mã học sinh</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Xếp loại</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
 </sst>
 </file>
@@ -121,12 +133,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -411,9 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -423,19 +436,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -445,16 +458,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -462,16 +475,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -479,16 +492,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -496,16 +509,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
         <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -513,16 +526,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
